--- a/data/0029000/prescription.xlsx
+++ b/data/0029000/prescription.xlsx
@@ -474,26 +474,26 @@
             &lt;/thead&gt;
             &lt;tbody&gt;
                 &lt;tr&gt;
-                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;CALPOL (250/5) + 4ml GEHA&lt;/td&gt;
-                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;4ml&lt;/td&gt;
+                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;CALPOL (250/5) + 4 mL GEHA&lt;/td&gt;
+                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;4 mL&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;Not Mentioned&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;3 days&lt;/td&gt;
                 &lt;/tr&gt;
                 &lt;tr&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;OGICON&lt;/td&gt;
-                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;3 ml&lt;/td&gt;
+                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;3 ML&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;Twice a day&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;Not Mentioned&lt;/td&gt;
                 &lt;/tr&gt;
                 &lt;tr&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;LEVOUN&lt;/td&gt;
-                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;3 ml&lt;/td&gt;
+                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;3 ML&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;Twice a day&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;Not Mentioned&lt;/td&gt;
                 &lt;/tr&gt;
                 &lt;tr&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;MEFTAL-P (100/5)&lt;/td&gt;
-                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;3 ml&lt;/td&gt;
+                &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;3 ML&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;Not Mentioned&lt;/td&gt;
                 &lt;td style="border: 1px solid #ccc; padding: 8px;"&gt;5 days&lt;/td&gt;
                 &lt;/tr&gt;
